--- a/notes/projectproblems.xlsx
+++ b/notes/projectproblems.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1240" windowWidth="24960" windowHeight="13460" tabRatio="500"/>
+    <workbookView xWindow="740" yWindow="1060" windowWidth="24960" windowHeight="13460" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ToDo" sheetId="1" r:id="rId1"/>
+    <sheet name="Goals" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>Can't yet solve unicode problem</t>
   </si>
@@ -60,16 +61,135 @@
   </si>
   <si>
     <t>write to Excel.</t>
+  </si>
+  <si>
+    <t>make average sentence length function to import</t>
+  </si>
+  <si>
+    <t>letter patterns</t>
+  </si>
+  <si>
+    <t>add Huck Finn</t>
+  </si>
+  <si>
+    <t>made the function, but need to put it in another file.</t>
+  </si>
+  <si>
+    <t>Lexical diversity</t>
+  </si>
+  <si>
+    <t>Add all texts by these three authors</t>
+  </si>
+  <si>
+    <t>Maybe not so accurate</t>
+  </si>
+  <si>
+    <t>Characters</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>HJ</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>compute average sen length across corpus</t>
+  </si>
+  <si>
+    <t>compute lex diversity across corpus</t>
+  </si>
+  <si>
+    <t>percentage of positive words in a sentence.</t>
+  </si>
+  <si>
+    <t>commas per period.</t>
+  </si>
+  <si>
+    <t>Input sentence, will give you how similar your writing is to an author.</t>
+  </si>
+  <si>
+    <t>Need texts to actually test the data: reserve some for this purpose.</t>
+  </si>
+  <si>
+    <t>Can one predict which sentences are most likely to be less unique/unique to an author?</t>
+  </si>
+  <si>
+    <t>Stemmer: stem words.</t>
+  </si>
+  <si>
+    <t>lexical diversity</t>
+  </si>
+  <si>
+    <t>weed out diff between lowercase and uppercase.</t>
+  </si>
+  <si>
+    <t>take out apostrophe's etc.</t>
+  </si>
+  <si>
+    <t>take out the classes.</t>
+  </si>
+  <si>
+    <t>put sentences as a dataframe column.</t>
+  </si>
+  <si>
+    <t>Change so raw starts at the first sentence, not Chapter I.</t>
+  </si>
+  <si>
+    <t>put sentence length as df column</t>
+  </si>
+  <si>
+    <t>Get Git running from Command Line and send to dave.</t>
+  </si>
+  <si>
+    <t>put lex div as df column.</t>
+  </si>
+  <si>
+    <t>Lexical diversity does not work as a Data Frame column since there is only one value for the entire text.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lowercase sentences. </t>
+  </si>
+  <si>
+    <t>stem centences.</t>
+  </si>
+  <si>
+    <t>create a lexical diversity with lowercase sentences to show the difference.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -92,14 +212,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -375,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -389,87 +515,349 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
+      <c r="B2" s="1">
+        <v>42855</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1">
-        <v>42847</v>
+        <v>42855</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
+      <c r="B4" s="1">
+        <v>42855</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
       <c r="B5" s="1">
-        <v>42847</v>
+        <v>42855</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
       <c r="B6" s="1"/>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
       <c r="B7" s="1"/>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
       <c r="B8" s="1"/>
       <c r="C8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1">
+        <v>42847</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1">
+        <v>42847</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1">
+        <v>42848</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19" s="1">
+        <v>42848</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20" s="1">
+        <v>42848</v>
+      </c>
+      <c r="C20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B22" s="1">
+        <v>42848</v>
+      </c>
+      <c r="C22" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>11</v>
+      </c>
+      <c r="B25" s="1">
+        <v>42849</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="1"/>
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="1"/>
+      <c r="D27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="1"/>
+      <c r="D28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>12</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B34" s="2">
+        <v>42849</v>
+      </c>
+      <c r="C34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>16</v>
+      </c>
+      <c r="C38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>17</v>
+      </c>
+      <c r="C39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>18</v>
+      </c>
+      <c r="C40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>19</v>
+      </c>
+      <c r="C41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>20</v>
+      </c>
+      <c r="C42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
